--- a/Bases/clubes.xlsx
+++ b/Bases/clubes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\PBI\Brasileirao\07-Brasileirao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\github\CampeonatoBrasileiro\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69779340-BEDD-41C1-82DC-1389DEFCA9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6EF58-7B96-48FC-AA5F-BBF61A91F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF6F9626-2980-407F-BD9A-1D91D1CC5A7C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="365">
   <si>
     <t>Figueirense</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>https://cloudfront-us-east-1.images.arcpublishing.com/estadao/6GLSX6LRRRM67OIHHZGXLAVDUM.jpg</t>
   </si>
   <si>
-    <t>https://w7.pngwing.com/pngs/221/12/png-transparent-bra-manequinho-hd-logo-thumbnail.png</t>
-  </si>
-  <si>
     <t>https://www.campeoesdofutebol.com.br/2022/rbbragantino_mascote.jpg</t>
   </si>
   <si>
@@ -1070,9 +1067,6 @@
     <t>https://i.pinimg.com/736x/bf/39/7b/bf397b9ca29a8633f938ee41a5c637cd.jpg</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/736x/30/5f/41/305f4178f5399ec70011f501b18c2dc5.jpg</t>
-  </si>
-  <si>
     <t>https://blog.futfanatics.com.br/wp-content/uploads/2019/09/capa-gaviao.png</t>
   </si>
   <si>
@@ -1115,9 +1109,6 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLSruG5Jx6GNfA9RnG6ytogdFi0PmENqasIQ&amp;s</t>
   </si>
   <si>
-    <t>https://img.favpng.com/19/24/24/s-o-paulo-fc-c-cero-pompeu-de-toledo-stadium-2013-campeonato-brasileiro-s-rie-a-mascot-cl-ssico-majestoso-png-favpng-3aqspNQW32BcjkcSN33c8BAt5.jpg</t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/originals/1b/83/05/1b8305a5e08302ddadb4229e3c635a36.png</t>
   </si>
   <si>
@@ -1125,6 +1116,24 @@
   </si>
   <si>
     <t>https://down-br.img.susercontent.com/file/br-11134207-7r98p-lmv0wbivtwkrb9</t>
+  </si>
+  <si>
+    <t>https://curraisnovosec.weebly.com/uploads/2/9/4/0/29401559/5489920_orig.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/pt/7/70/MascoteGremio.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYRASQYR42f-k9OotG4QESdLx7G6mlUC0DPbox96gR3yf4EUTwrrPsa77evhqtrI5tjJM&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://controle.omunicipio.com.br/wp-content/uploads/2025/01/mascotes-catarinao-2024-coelho-joinville-1.png</t>
+  </si>
+  <si>
+    <t>https://rafaelafutebol.wordpress.com/wp-content/uploads/2011/11/mascote_botafogo.jpg</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiRYKDNAz1WaCcl1vHH3PJLSjKbwa5EGoZARf8lPieAo4PSVRjwTial1JzHyzjHP1hmAtY74vC__bICWsOS4R6EFCZGiqosnrQP4VBjDMz3LN-Te7fKNabvazbJ50ZQJMW7GhOncSFWfgg/s320/gralha1_peq.png</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FD0AFF-1CBE-42DC-814B-02C150EBB5A0}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,7 +1990,7 @@
         <v>196</v>
       </c>
       <c r="M11" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
@@ -2022,7 +2031,7 @@
         <v>197</v>
       </c>
       <c r="M12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2063,7 +2072,7 @@
         <v>198</v>
       </c>
       <c r="M13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2104,7 +2113,7 @@
         <v>199</v>
       </c>
       <c r="M14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
@@ -2145,7 +2154,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2186,7 +2195,7 @@
         <v>201</v>
       </c>
       <c r="M16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2227,7 +2236,7 @@
         <v>202</v>
       </c>
       <c r="M17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2268,7 +2277,7 @@
         <v>203</v>
       </c>
       <c r="M18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2309,7 +2318,7 @@
         <v>204</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2350,7 +2359,7 @@
         <v>210</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>102</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2391,7 +2400,7 @@
         <v>205</v>
       </c>
       <c r="M21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2432,7 +2441,7 @@
         <v>206</v>
       </c>
       <c r="M22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2473,7 +2482,7 @@
         <v>207</v>
       </c>
       <c r="M23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2514,7 +2523,7 @@
         <v>208</v>
       </c>
       <c r="M24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2555,7 +2564,7 @@
         <v>209</v>
       </c>
       <c r="M25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2596,7 +2605,7 @@
         <v>211</v>
       </c>
       <c r="M26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2637,7 +2646,7 @@
         <v>212</v>
       </c>
       <c r="M27" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2678,7 +2687,7 @@
         <v>213</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2719,7 +2728,7 @@
         <v>214</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2760,7 +2769,7 @@
         <v>215</v>
       </c>
       <c r="M30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -2801,7 +2810,7 @@
         <v>216</v>
       </c>
       <c r="M31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2842,7 +2851,7 @@
         <v>217</v>
       </c>
       <c r="M32" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -2883,10 +2892,10 @@
         <v>218</v>
       </c>
       <c r="M33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>219</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -2965,10 +2974,10 @@
         <v>220</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>221</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3047,7 +3056,7 @@
         <v>222</v>
       </c>
       <c r="M37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3088,7 +3097,7 @@
         <v>223</v>
       </c>
       <c r="M38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3129,7 +3138,7 @@
         <v>224</v>
       </c>
       <c r="M39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3170,7 +3179,7 @@
         <v>225</v>
       </c>
       <c r="M40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3211,7 +3220,7 @@
         <v>226</v>
       </c>
       <c r="M41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3252,7 +3261,7 @@
         <v>227</v>
       </c>
       <c r="M42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3293,7 +3302,7 @@
         <v>228</v>
       </c>
       <c r="M43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3334,7 +3343,7 @@
         <v>229</v>
       </c>
       <c r="M44" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3375,7 +3384,7 @@
         <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3416,7 +3425,7 @@
         <v>231</v>
       </c>
       <c r="M46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3457,7 +3466,7 @@
         <v>232</v>
       </c>
       <c r="M47" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
